--- a/biology/Biochimie/Xylitol/Xylitol.xlsx
+++ b/biology/Biochimie/Xylitol/Xylitol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le xylitol (E967) est un polyol extrait de l'écorce de bouleau, considéré depuis une vingtaine d'années comme un substitut du sucre classique (saccharose) dans les pays nordiques. Le xylitol est communément appelé sucre de bouleau.
-Certains avantages comme ses effets antibactériens en font une réponse possible aux problèmes de santé publique liés à la surconsommation de sucre, ou comme solution de traitement de la sinusite[4].
+Certains avantages comme ses effets antibactériens en font une réponse possible aux problèmes de santé publique liés à la surconsommation de sucre, ou comme solution de traitement de la sinusite.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Goût</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le xylitol possède le même pouvoir sucrant et la même saveur que le saccharose (pouvoir sucrant quasi similaire). En revanche, le xylitol a un effet rafraîchissant et son apport calorique est inférieur à celui du saccharose avec 2,4 kcal/g contre 4,0 kcal/g.
 Le xylitol, comme la plupart des polyols tels l'érythritol, le mannitol et le sorbitol, produit un effet rafraîchissant en bouche. Cependant, il est celui qui produit l'effet le plus prononcé parmi les polyols. Pour cette raison, le xylitol est l'édulcorant de friandises « rafraîchissant l'haleine ».
@@ -546,10 +560,12 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le xylitol est un polyol (sucre alcool). La formule brute du xylitol est C5H12O5. Son nom systémique est (2,3,4,5)tetrahydroxy-pentanol mais peut être dénommé dans différents ouvrages comme : 1,2,3,4,5-Pentahydroxypentane D-Xylit ou (2R,3R,4S)-pentane-1,2,3,4,5-pentanol.
-Il fut découvert et synthétisé en 1891 par Hermann Emil Fischer, chimiste allemand, et ses associés[5]. Le xylitol est dangereux pour les chiens[6].
+Il fut découvert et synthétisé en 1891 par Hermann Emil Fischer, chimiste allemand, et ses associés. Le xylitol est dangereux pour les chiens.
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Occurrences</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Occurrence du xylitol en mg/100g de matière sèche : 
 </t>
@@ -609,9 +627,11 @@
           <t>Consommation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le xylitol est considéré comme à  pouvoir cariogène nul. Préférable surtout dans les produits pastilles, les bonbons et les médicaments. Mais la consommation doit être réduite en raison de leur effet secondaire laxatif, à forte dose il peut être la cause d'une perte de réponse musculaire et nerveuse au niveau intestinal.  Cependant, l'effet réducteur de caries de l'ajout de chewing-gum au xylitol à l'alimentation quotidienne a été bien démontré chez les enfants et les adolescents présentant un niveau de caries élevé ou modéré[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le xylitol est considéré comme à  pouvoir cariogène nul. Préférable surtout dans les produits pastilles, les bonbons et les médicaments. Mais la consommation doit être réduite en raison de leur effet secondaire laxatif, à forte dose il peut être la cause d'une perte de réponse musculaire et nerveuse au niveau intestinal.  Cependant, l'effet réducteur de caries de l'ajout de chewing-gum au xylitol à l'alimentation quotidienne a été bien démontré chez les enfants et les adolescents présentant un niveau de caries élevé ou modéré.
 </t>
         </is>
       </c>
@@ -640,10 +660,12 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le xylitol est présent dans de nombreux fruits et baies mais son extraction commerciale à partir de ces sources n'est pas envisagée. Il est extrait du bois, des épis de maïs, de la pulpe de canne, des cosses de graines, de la paille, des coques de noix de coco. Ces sources contiennent 20-35 % de xylane qui est convertie en xylose par hydrolyse acide, puis hydrogénée (catalyse Ni ou chromite Cr) pour obtenir le xylitol (conversion du groupement —CHO terminal en —CH2OH)[3],[9]. L'hydrogénation est suivie  de plusieurs étapes de séparation et de purification. Le produit final contient très peu d'impuretés, parmi lesquelles apparaissent le mannitol, le sorbitol, le galactitol ou l'arabitol.
-Les autres méthodes de production plus rarement employées consistent en la conversion du glucose (dextrose) en xylose suivie d'une hydrogénation pour obtenir le xylitol, ou la conversion microbiologique du xylose en xylitol[3],[10].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le xylitol est présent dans de nombreux fruits et baies mais son extraction commerciale à partir de ces sources n'est pas envisagée. Il est extrait du bois, des épis de maïs, de la pulpe de canne, des cosses de graines, de la paille, des coques de noix de coco. Ces sources contiennent 20-35 % de xylane qui est convertie en xylose par hydrolyse acide, puis hydrogénée (catalyse Ni ou chromite Cr) pour obtenir le xylitol (conversion du groupement —CHO terminal en —CH2OH),. L'hydrogénation est suivie  de plusieurs étapes de séparation et de purification. Le produit final contient très peu d'impuretés, parmi lesquelles apparaissent le mannitol, le sorbitol, le galactitol ou l'arabitol.
+Les autres méthodes de production plus rarement employées consistent en la conversion du glucose (dextrose) en xylose suivie d'une hydrogénation pour obtenir le xylitol, ou la conversion microbiologique du xylose en xylitol,.
 </t>
         </is>
       </c>
